--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06944244648722</v>
+        <v>1.55477</v>
       </c>
       <c r="H2">
-        <v>1.06944244648722</v>
+        <v>4.66431</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,31 +552,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.64962073320929</v>
+        <v>0.4635846666666667</v>
       </c>
       <c r="N2">
-        <v>1.64962073320929</v>
+        <v>1.390754</v>
       </c>
       <c r="O2">
-        <v>0.8249898692774998</v>
+        <v>0.1767302775232392</v>
       </c>
       <c r="P2">
-        <v>0.8249898692774998</v>
+        <v>0.1862343266337822</v>
       </c>
       <c r="Q2">
-        <v>1.764174432699385</v>
+        <v>0.7207675321933332</v>
       </c>
       <c r="R2">
-        <v>1.764174432699385</v>
+        <v>6.486907789739999</v>
       </c>
       <c r="S2">
-        <v>0.8249898692774998</v>
+        <v>0.1767302775232392</v>
       </c>
       <c r="T2">
-        <v>0.8249898692774998</v>
+        <v>0.1862343266337822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +590,179 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.55477</v>
+      </c>
+      <c r="H3">
+        <v>4.66431</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.735013</v>
+      </c>
+      <c r="N3">
+        <v>5.205038999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.6614311279991165</v>
+      </c>
+      <c r="P3">
+        <v>0.6970010032454158</v>
+      </c>
+      <c r="Q3">
+        <v>2.697546162009999</v>
+      </c>
+      <c r="R3">
+        <v>24.27791545808999</v>
+      </c>
+      <c r="S3">
+        <v>0.6614311279991165</v>
+      </c>
+      <c r="T3">
+        <v>0.6970010032454158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.06944244648722</v>
-      </c>
-      <c r="H3">
-        <v>1.06944244648722</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.349944103452251</v>
-      </c>
-      <c r="N3">
-        <v>0.349944103452251</v>
-      </c>
-      <c r="O3">
-        <v>0.1750101307225002</v>
-      </c>
-      <c r="P3">
-        <v>0.1750101307225002</v>
-      </c>
-      <c r="Q3">
-        <v>0.3742450781297522</v>
-      </c>
-      <c r="R3">
-        <v>0.3742450781297522</v>
-      </c>
-      <c r="S3">
-        <v>0.1750101307225002</v>
-      </c>
-      <c r="T3">
-        <v>0.1750101307225002</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.55477</v>
+      </c>
+      <c r="H4">
+        <v>4.66431</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.022927</v>
+      </c>
+      <c r="N4">
+        <v>0.06878099999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.008740356107784638</v>
+      </c>
+      <c r="P4">
+        <v>0.00921038747341239</v>
+      </c>
+      <c r="Q4">
+        <v>0.03564621178999999</v>
+      </c>
+      <c r="R4">
+        <v>0.3208159061099999</v>
+      </c>
+      <c r="S4">
+        <v>0.008740356107784638</v>
+      </c>
+      <c r="T4">
+        <v>0.00921038747341239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.55477</v>
+      </c>
+      <c r="H5">
+        <v>4.66431</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.401595</v>
+      </c>
+      <c r="N5">
+        <v>0.80319</v>
+      </c>
+      <c r="O5">
+        <v>0.1530982383698596</v>
+      </c>
+      <c r="P5">
+        <v>0.1075542826473895</v>
+      </c>
+      <c r="Q5">
+        <v>0.6243878581499999</v>
+      </c>
+      <c r="R5">
+        <v>3.746327148899999</v>
+      </c>
+      <c r="S5">
+        <v>0.1530982383698596</v>
+      </c>
+      <c r="T5">
+        <v>0.1075542826473895</v>
       </c>
     </row>
   </sheetData>
